--- a/GA_bNa_bCa_NaK/Best_ind4.xlsx
+++ b/GA_bNa_bCa_NaK/Best_ind4.xlsx
@@ -492,37 +492,37 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.670095497650059</v>
+        <v>0.2167851512448333</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7096051439483537</v>
+        <v>2.006568360263377</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3835597479811351</v>
+        <v>0.5802188724237501</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3920576047619153</v>
+        <v>1.2486289434881</v>
       </c>
       <c r="E2" t="n">
-        <v>2.544124356024569</v>
+        <v>1.464410959719144</v>
       </c>
       <c r="F2" t="n">
-        <v>4.871224917040253</v>
+        <v>3.37696873403979</v>
       </c>
       <c r="G2" t="n">
-        <v>7.161885006814453</v>
+        <v>3.764855322618628</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2533636537808887</v>
+        <v>0.191805362768934</v>
       </c>
       <c r="I2" t="n">
-        <v>1.659425268011918</v>
+        <v>0.2143329898185919</v>
       </c>
       <c r="J2" t="n">
-        <v>3.433321932284677</v>
+        <v>0.7197150208225268</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1692553259561646</v>
+        <v>0.1526585399772394</v>
       </c>
     </row>
   </sheetData>
